--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Mfge8-Pdgfrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H2">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I2">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J2">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.164182666666667</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N2">
-        <v>27.492548</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O2">
-        <v>0.03970753467660135</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P2">
-        <v>0.04986509649035763</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q2">
-        <v>225.1206337548969</v>
+        <v>44.15783671710179</v>
       </c>
       <c r="R2">
-        <v>2026.085703794072</v>
+        <v>397.4205304539161</v>
       </c>
       <c r="S2">
-        <v>0.005910692661577743</v>
+        <v>0.006503718404847278</v>
       </c>
       <c r="T2">
-        <v>0.009372174558386267</v>
+        <v>0.007250502637694139</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H3">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I3">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J3">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>240.97284</v>
       </c>
       <c r="O3">
-        <v>0.3480374900289019</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P3">
-        <v>0.437068761984357</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q3">
-        <v>1973.18773285464</v>
+        <v>1264.95393707568</v>
       </c>
       <c r="R3">
-        <v>17758.68959569176</v>
+        <v>11384.58543368112</v>
       </c>
       <c r="S3">
-        <v>0.05180736238152781</v>
+        <v>0.1863067761799334</v>
       </c>
       <c r="T3">
-        <v>0.08214733389972018</v>
+        <v>0.2076993018495576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H4">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I4">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J4">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.118916</v>
+        <v>0.112158</v>
       </c>
       <c r="N4">
-        <v>0.356748</v>
+        <v>0.336474</v>
       </c>
       <c r="O4">
-        <v>0.0005152517540683453</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P4">
-        <v>0.0006470580116016203</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q4">
-        <v>2.921203805874667</v>
+        <v>1.766274203448</v>
       </c>
       <c r="R4">
-        <v>26.290834252872</v>
+        <v>15.896467831032</v>
       </c>
       <c r="S4">
-        <v>7.66981578292611E-05</v>
+        <v>0.0002601429530745742</v>
       </c>
       <c r="T4">
-        <v>0.0001216149383227478</v>
+        <v>0.0002900136583464263</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.56527133333333</v>
+        <v>15.74808933333333</v>
       </c>
       <c r="H5">
-        <v>73.695814</v>
+        <v>47.244268</v>
       </c>
       <c r="I5">
-        <v>0.1488556947621522</v>
+        <v>0.2237852983702856</v>
       </c>
       <c r="J5">
-        <v>0.1879505950660008</v>
+        <v>0.2380674495116221</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,43 +744,43 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>141.03759</v>
+        <v>13.242315</v>
       </c>
       <c r="N5">
-        <v>282.07518</v>
+        <v>26.48463</v>
       </c>
       <c r="O5">
-        <v>0.6111025062823514</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P5">
-        <v>0.5116188600720092</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q5">
-        <v>3464.626666549419</v>
+        <v>208.54115960014</v>
       </c>
       <c r="R5">
-        <v>20787.75999929652</v>
+        <v>1251.24695760084</v>
       </c>
       <c r="S5">
-        <v>0.09096608814355188</v>
+        <v>0.03071466083243042</v>
       </c>
       <c r="T5">
-        <v>0.09615906919752315</v>
+        <v>0.02282763136602386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.56527133333333</v>
+        <v>25.78973433333333</v>
       </c>
       <c r="H6">
-        <v>73.695814</v>
+        <v>77.369203</v>
       </c>
       <c r="I6">
-        <v>0.1488556947621522</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J6">
-        <v>0.1879505950660008</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1470646666666666</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N6">
-        <v>0.441194</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O6">
-        <v>0.0006372172580769324</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P6">
-        <v>0.0008002234416746982</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q6">
-        <v>3.612683440212888</v>
+        <v>72.31473314405679</v>
       </c>
       <c r="R6">
-        <v>32.51415096191599</v>
+        <v>650.8325982965112</v>
       </c>
       <c r="S6">
-        <v>9.485341766547537E-05</v>
+        <v>0.01065076316812582</v>
       </c>
       <c r="T6">
-        <v>0.0001504024720485227</v>
+        <v>0.0118737284791415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>77.369203</v>
       </c>
       <c r="I7">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J7">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.164182666666667</v>
+        <v>80.32428</v>
       </c>
       <c r="N7">
-        <v>27.492548</v>
+        <v>240.97284</v>
       </c>
       <c r="O7">
-        <v>0.03970753467660135</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P7">
-        <v>0.04986509649035763</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q7">
-        <v>236.3418363554715</v>
+        <v>2071.54184171628</v>
       </c>
       <c r="R7">
-        <v>2127.076527199244</v>
+        <v>18643.87657544652</v>
       </c>
       <c r="S7">
-        <v>0.006205312833700686</v>
+        <v>0.3051038231038065</v>
       </c>
       <c r="T7">
-        <v>0.009839333289123075</v>
+        <v>0.3401371241005724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>77.369203</v>
       </c>
       <c r="I8">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J8">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.32428</v>
+        <v>0.112158</v>
       </c>
       <c r="N8">
-        <v>240.97284</v>
+        <v>0.336474</v>
       </c>
       <c r="O8">
-        <v>0.3480374900289019</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P8">
-        <v>0.437068761984357</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q8">
-        <v>2071.54184171628</v>
+        <v>2.892525023358</v>
       </c>
       <c r="R8">
-        <v>18643.87657544652</v>
+        <v>26.032725210222</v>
       </c>
       <c r="S8">
-        <v>0.05438971522847944</v>
+        <v>0.0004260210560452795</v>
       </c>
       <c r="T8">
-        <v>0.086241991334762</v>
+        <v>0.0004749385810227243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>77.369203</v>
       </c>
       <c r="I9">
-        <v>0.1562754495901082</v>
+        <v>0.366480229475165</v>
       </c>
       <c r="J9">
-        <v>0.1973190464200886</v>
+        <v>0.38986928168634</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.118916</v>
+        <v>13.242315</v>
       </c>
       <c r="N9">
-        <v>0.356748</v>
+        <v>26.48463</v>
       </c>
       <c r="O9">
-        <v>0.0005152517540683453</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P9">
-        <v>0.0006470580116016203</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q9">
-        <v>3.066812047982667</v>
+        <v>341.5157858083149</v>
       </c>
       <c r="R9">
-        <v>27.601308431844</v>
+        <v>2049.09471484989</v>
       </c>
       <c r="S9">
-        <v>8.052119951912251E-05</v>
+        <v>0.05029962214718742</v>
       </c>
       <c r="T9">
-        <v>0.0001276768698277104</v>
+        <v>0.03738349052560339</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,61 +1036,61 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.78973433333333</v>
+        <v>2.416095</v>
       </c>
       <c r="H10">
-        <v>77.369203</v>
+        <v>7.248285</v>
       </c>
       <c r="I10">
-        <v>0.1562754495901082</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J10">
-        <v>0.1973190464200886</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.03759</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N10">
-        <v>282.07518</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O10">
-        <v>0.6111025062823514</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P10">
-        <v>0.5116188600720092</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q10">
-        <v>3637.32197711359</v>
+        <v>6.774760178505002</v>
       </c>
       <c r="R10">
-        <v>21823.93186268154</v>
+        <v>60.97284160654501</v>
       </c>
       <c r="S10">
-        <v>0.09550031891491637</v>
+        <v>0.0009978100318556835</v>
       </c>
       <c r="T10">
-        <v>0.1009521455999416</v>
+        <v>0.001112382765910541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.78973433333333</v>
+        <v>2.416095</v>
       </c>
       <c r="H11">
-        <v>77.369203</v>
+        <v>7.248285</v>
       </c>
       <c r="I11">
-        <v>0.1562754495901082</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J11">
-        <v>0.1973190464200886</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1470646666666666</v>
+        <v>80.32428</v>
       </c>
       <c r="N11">
-        <v>0.441194</v>
+        <v>240.97284</v>
       </c>
       <c r="O11">
-        <v>0.0006372172580769324</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P11">
-        <v>0.0008002234416746982</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q11">
-        <v>3.792758683153555</v>
+        <v>194.0710912866</v>
       </c>
       <c r="R11">
-        <v>34.134828148382</v>
+        <v>1746.6398215794</v>
       </c>
       <c r="S11">
-        <v>9.958141349254859E-05</v>
+        <v>0.0285834592925298</v>
       </c>
       <c r="T11">
-        <v>0.0001578993264342529</v>
+        <v>0.03186553200711292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H12">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I12">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J12">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>9.164182666666667</v>
+        <v>0.112158</v>
       </c>
       <c r="N12">
-        <v>27.492548</v>
+        <v>0.336474</v>
       </c>
       <c r="O12">
-        <v>0.03970753467660135</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P12">
-        <v>0.04986509649035763</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q12">
-        <v>76.17016006564489</v>
+        <v>0.27098438301</v>
       </c>
       <c r="R12">
-        <v>685.5314405908041</v>
+        <v>2.43885944709</v>
       </c>
       <c r="S12">
-        <v>0.001999898448319893</v>
+        <v>3.991151401956615E-05</v>
       </c>
       <c r="T12">
-        <v>0.003171099975903112</v>
+        <v>4.449432150345788E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.311724333333334</v>
+        <v>2.416095</v>
       </c>
       <c r="H13">
-        <v>24.935173</v>
+        <v>7.248285</v>
       </c>
       <c r="I13">
-        <v>0.05036571684966338</v>
+        <v>0.03433346922420018</v>
       </c>
       <c r="J13">
-        <v>0.06359357945925773</v>
+        <v>0.03652465783327086</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.32428</v>
+        <v>13.242315</v>
       </c>
       <c r="N13">
-        <v>240.97284</v>
+        <v>26.48463</v>
       </c>
       <c r="O13">
-        <v>0.3480374900289019</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P13">
-        <v>0.437068761984357</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q13">
-        <v>667.63327263348</v>
+        <v>31.994691059925</v>
       </c>
       <c r="R13">
-        <v>6008.699453701321</v>
+        <v>191.96814635955</v>
       </c>
       <c r="S13">
-        <v>0.01752915767586322</v>
+        <v>0.004712288385795138</v>
       </c>
       <c r="T13">
-        <v>0.02779476704441161</v>
+        <v>0.003502248738743931</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.311724333333334</v>
+        <v>12.6651745</v>
       </c>
       <c r="H14">
-        <v>24.935173</v>
+        <v>25.330349</v>
       </c>
       <c r="I14">
-        <v>0.05036571684966338</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J14">
-        <v>0.06359357945925773</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.118916</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N14">
-        <v>0.356748</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O14">
-        <v>0.0005152517540683453</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P14">
-        <v>0.0006470580116016203</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q14">
-        <v>0.9883970108226668</v>
+        <v>35.51330550181884</v>
       </c>
       <c r="R14">
-        <v>8.895573097404002</v>
+        <v>213.079833010913</v>
       </c>
       <c r="S14">
-        <v>2.595102395169867E-05</v>
+        <v>0.005230522049548048</v>
       </c>
       <c r="T14">
-        <v>4.114873507553695E-05</v>
+        <v>0.003887408356887085</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,117 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.311724333333334</v>
+        <v>12.6651745</v>
       </c>
       <c r="H15">
-        <v>24.935173</v>
+        <v>25.330349</v>
       </c>
       <c r="I15">
-        <v>0.05036571684966338</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J15">
-        <v>0.06359357945925773</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>141.03759</v>
+        <v>80.32428</v>
       </c>
       <c r="N15">
-        <v>282.07518</v>
+        <v>240.97284</v>
       </c>
       <c r="O15">
-        <v>0.6111025062823514</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P15">
-        <v>0.5116188600720092</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q15">
-        <v>1172.26556871769</v>
+        <v>1017.32102278686</v>
       </c>
       <c r="R15">
-        <v>7033.593412306141</v>
+        <v>6103.926136721159</v>
       </c>
       <c r="S15">
-        <v>0.03077861579753655</v>
+        <v>0.1498345469667113</v>
       </c>
       <c r="T15">
-        <v>0.03253567463084418</v>
+        <v>0.1113594521753547</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.311724333333334</v>
+        <v>12.6651745</v>
       </c>
       <c r="H16">
-        <v>24.935173</v>
+        <v>25.330349</v>
       </c>
       <c r="I16">
-        <v>0.05036571684966338</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J16">
-        <v>0.06359357945925773</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.1470646666666666</v>
+        <v>0.112158</v>
       </c>
       <c r="N16">
-        <v>0.441194</v>
+        <v>0.336474</v>
       </c>
       <c r="O16">
-        <v>0.0006372172580769324</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P16">
-        <v>0.0008002234416746982</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q16">
-        <v>1.222360968506889</v>
+        <v>1.420500641571</v>
       </c>
       <c r="R16">
-        <v>11.001248716562</v>
+        <v>8.523003849425999</v>
       </c>
       <c r="S16">
-        <v>3.209390399202165E-05</v>
+        <v>0.0002092162309913317</v>
       </c>
       <c r="T16">
-        <v>5.088907302330061E-05</v>
+        <v>0.0001554928775842551</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>102.9802095</v>
+        <v>12.6651745</v>
       </c>
       <c r="H17">
-        <v>205.960419</v>
+        <v>25.330349</v>
       </c>
       <c r="I17">
-        <v>0.6240187793518835</v>
+        <v>0.1799761097617747</v>
       </c>
       <c r="J17">
-        <v>0.5252724844194389</v>
+        <v>0.1276415496938013</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.164182666666667</v>
+        <v>13.242315</v>
       </c>
       <c r="N17">
-        <v>27.492548</v>
+        <v>26.48463</v>
       </c>
       <c r="O17">
-        <v>0.03970753467660135</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P17">
-        <v>0.04986509649035763</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q17">
-        <v>943.7294509096021</v>
+        <v>167.7162302589675</v>
       </c>
       <c r="R17">
-        <v>5662.376705457612</v>
+        <v>670.8649210358699</v>
       </c>
       <c r="S17">
-        <v>0.02477824731996536</v>
+        <v>0.02470182451452396</v>
       </c>
       <c r="T17">
-        <v>0.02619276311930519</v>
+        <v>0.01223919628397526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>102.9802095</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H18">
-        <v>205.960419</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I18">
-        <v>0.6240187793518835</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J18">
-        <v>0.5252724844194389</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>80.32428</v>
+        <v>2.804012333333334</v>
       </c>
       <c r="N18">
-        <v>240.97284</v>
+        <v>8.412037000000002</v>
       </c>
       <c r="O18">
-        <v>0.3480374900289019</v>
+        <v>0.02906231308406114</v>
       </c>
       <c r="P18">
-        <v>0.437068761984357</v>
+        <v>0.03045566562152035</v>
       </c>
       <c r="Q18">
-        <v>8271.81118233666</v>
+        <v>38.56169545470378</v>
       </c>
       <c r="R18">
-        <v>49630.86709401996</v>
+        <v>347.055259092334</v>
       </c>
       <c r="S18">
-        <v>0.2171819296965287</v>
+        <v>0.005679499429684313</v>
       </c>
       <c r="T18">
-        <v>0.2295801944696516</v>
+        <v>0.006331643381887081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>102.9802095</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H19">
-        <v>205.960419</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I19">
-        <v>0.6240187793518835</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J19">
-        <v>0.5252724844194389</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.118916</v>
+        <v>80.32428</v>
       </c>
       <c r="N19">
-        <v>0.356748</v>
+        <v>240.97284</v>
       </c>
       <c r="O19">
-        <v>0.0005152517540683453</v>
+        <v>0.8325246454378851</v>
       </c>
       <c r="P19">
-        <v>0.0006470580116016203</v>
+        <v>0.8724388919007514</v>
       </c>
       <c r="Q19">
-        <v>12.245994592902</v>
+        <v>1104.64579137432</v>
       </c>
       <c r="R19">
-        <v>73.47596755741201</v>
+        <v>9941.812122368878</v>
       </c>
       <c r="S19">
-        <v>0.0003215267706326457</v>
+        <v>0.162696039894904</v>
       </c>
       <c r="T19">
-        <v>0.0003398817693174852</v>
+        <v>0.1813774817681537</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>102.9802095</v>
+        <v>13.75232733333333</v>
       </c>
       <c r="H20">
-        <v>205.960419</v>
+        <v>41.25698199999999</v>
       </c>
       <c r="I20">
-        <v>0.6240187793518835</v>
+        <v>0.1954248931685745</v>
       </c>
       <c r="J20">
-        <v>0.5252724844194389</v>
+        <v>0.2078970612749657</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>141.03759</v>
+        <v>0.112158</v>
       </c>
       <c r="N20">
-        <v>282.07518</v>
+        <v>0.336474</v>
       </c>
       <c r="O20">
-        <v>0.6111025062823514</v>
+        <v>0.001162466681095956</v>
       </c>
       <c r="P20">
-        <v>0.5116188600720092</v>
+        <v>0.001218199543622482</v>
       </c>
       <c r="Q20">
-        <v>14524.0805655751</v>
+        <v>1.542433529052</v>
       </c>
       <c r="R20">
-        <v>58096.32226230042</v>
+        <v>13.881901761468</v>
       </c>
       <c r="S20">
-        <v>0.3813394400291897</v>
+        <v>0.0002271749269652046</v>
       </c>
       <c r="T20">
-        <v>0.2687393097058655</v>
+        <v>0.0002532601051656184</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.75232733333333</v>
+      </c>
+      <c r="H21">
+        <v>41.25698199999999</v>
+      </c>
+      <c r="I21">
+        <v>0.1954248931685745</v>
+      </c>
+      <c r="J21">
+        <v>0.2078970612749657</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>102.9802095</v>
-      </c>
-      <c r="H21">
-        <v>205.960419</v>
-      </c>
-      <c r="I21">
-        <v>0.6240187793518835</v>
-      </c>
-      <c r="J21">
-        <v>0.5252724844194389</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1470646666666666</v>
+        <v>13.242315</v>
       </c>
       <c r="N21">
-        <v>0.441194</v>
+        <v>26.48463</v>
       </c>
       <c r="O21">
-        <v>0.0006372172580769324</v>
+        <v>0.1372505747969579</v>
       </c>
       <c r="P21">
-        <v>0.0008002234416746982</v>
+        <v>0.09588724293410575</v>
       </c>
       <c r="Q21">
-        <v>15.144750183381</v>
+        <v>182.11265053111</v>
       </c>
       <c r="R21">
-        <v>90.868501100286</v>
+        <v>1092.67590318666</v>
       </c>
       <c r="S21">
-        <v>0.0003976355355671215</v>
+        <v>0.02682217891702093</v>
       </c>
       <c r="T21">
-        <v>0.0004203353552991426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>3.380481</v>
-      </c>
-      <c r="H22">
-        <v>10.141443</v>
-      </c>
-      <c r="I22">
-        <v>0.02048435944619276</v>
-      </c>
-      <c r="J22">
-        <v>0.025864294635214</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>9.164182666666667</v>
-      </c>
-      <c r="N22">
-        <v>27.492548</v>
-      </c>
-      <c r="O22">
-        <v>0.03970753467660135</v>
-      </c>
-      <c r="P22">
-        <v>0.04986509649035763</v>
-      </c>
-      <c r="Q22">
-        <v>30.979345385196</v>
-      </c>
-      <c r="R22">
-        <v>278.814108466764</v>
-      </c>
-      <c r="S22">
-        <v>0.0008133834130376654</v>
-      </c>
-      <c r="T22">
-        <v>0.001289725547639985</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>3.380481</v>
-      </c>
-      <c r="H23">
-        <v>10.141443</v>
-      </c>
-      <c r="I23">
-        <v>0.02048435944619276</v>
-      </c>
-      <c r="J23">
-        <v>0.025864294635214</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>80.32428</v>
-      </c>
-      <c r="N23">
-        <v>240.97284</v>
-      </c>
-      <c r="O23">
-        <v>0.3480374900289019</v>
-      </c>
-      <c r="P23">
-        <v>0.437068761984357</v>
-      </c>
-      <c r="Q23">
-        <v>271.53470237868</v>
-      </c>
-      <c r="R23">
-        <v>2443.81232140812</v>
-      </c>
-      <c r="S23">
-        <v>0.007129325046502756</v>
-      </c>
-      <c r="T23">
-        <v>0.01130447523581163</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>3.380481</v>
-      </c>
-      <c r="H24">
-        <v>10.141443</v>
-      </c>
-      <c r="I24">
-        <v>0.02048435944619276</v>
-      </c>
-      <c r="J24">
-        <v>0.025864294635214</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.118916</v>
-      </c>
-      <c r="N24">
-        <v>0.356748</v>
-      </c>
-      <c r="O24">
-        <v>0.0005152517540683453</v>
-      </c>
-      <c r="P24">
-        <v>0.0006470580116016203</v>
-      </c>
-      <c r="Q24">
-        <v>0.401993278596</v>
-      </c>
-      <c r="R24">
-        <v>3.617939507363999</v>
-      </c>
-      <c r="S24">
-        <v>1.05546021356173E-05</v>
-      </c>
-      <c r="T24">
-        <v>1.673569905814003E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>3.380481</v>
-      </c>
-      <c r="H25">
-        <v>10.141443</v>
-      </c>
-      <c r="I25">
-        <v>0.02048435944619276</v>
-      </c>
-      <c r="J25">
-        <v>0.025864294635214</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>141.03759</v>
-      </c>
-      <c r="N25">
-        <v>282.07518</v>
-      </c>
-      <c r="O25">
-        <v>0.6111025062823514</v>
-      </c>
-      <c r="P25">
-        <v>0.5116188600720092</v>
-      </c>
-      <c r="Q25">
-        <v>476.7748932807899</v>
-      </c>
-      <c r="R25">
-        <v>2860.649359684739</v>
-      </c>
-      <c r="S25">
-        <v>0.01251804339715696</v>
-      </c>
-      <c r="T25">
-        <v>0.01323266093783477</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>3.380481</v>
-      </c>
-      <c r="H26">
-        <v>10.141443</v>
-      </c>
-      <c r="I26">
-        <v>0.02048435944619276</v>
-      </c>
-      <c r="J26">
-        <v>0.025864294635214</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.1470646666666666</v>
-      </c>
-      <c r="N26">
-        <v>0.441194</v>
-      </c>
-      <c r="O26">
-        <v>0.0006372172580769324</v>
-      </c>
-      <c r="P26">
-        <v>0.0008002234416746982</v>
-      </c>
-      <c r="Q26">
-        <v>0.4971493114379999</v>
-      </c>
-      <c r="R26">
-        <v>4.474343802941999</v>
-      </c>
-      <c r="S26">
-        <v>1.305298735976526E-05</v>
-      </c>
-      <c r="T26">
-        <v>2.069721486947938E-05</v>
+        <v>0.0199346760197593</v>
       </c>
     </row>
   </sheetData>
